--- a/SYP/Daily-Scrum.xlsx
+++ b/SYP/Daily-Scrum.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{095950C7-9F59-4473-A880-52148F28B51A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD72045-D3E6-4BB0-809B-D9B0AD943AF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26.02.2019" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,10 @@
     <sheet name="25.03.2019" sheetId="5" r:id="rId5"/>
     <sheet name="01.04.2019" sheetId="7" r:id="rId6"/>
     <sheet name="29.04.2019" sheetId="8" r:id="rId7"/>
+    <sheet name="06.05.2019" sheetId="9" r:id="rId8"/>
+    <sheet name="13.05.2019" sheetId="10" r:id="rId9"/>
+    <sheet name="14.05.2019" sheetId="12" r:id="rId10"/>
+    <sheet name="Tabelle5" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <si>
     <t>Frage</t>
   </si>
@@ -122,6 +126,15 @@
   </si>
   <si>
     <t>1) GUI Veranstaltung anlegen</t>
+  </si>
+  <si>
+    <t>1) GUI Veranstaltung anlegen + bearbeiten</t>
+  </si>
+  <si>
+    <t>3) Userprofil</t>
+  </si>
+  <si>
+    <t>4) Webservice Schnittstelle</t>
   </si>
 </sst>
 </file>
@@ -461,7 +474,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,8 +539,8 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,12 +579,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073BE6E0-1630-478B-9C2E-FA886CBE1952}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43599</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6072A7-6B27-4444-A157-4AAB4272670F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91909A-219E-455D-8F48-B8F442E487F6}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,8 +717,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1139,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900179A0-87FD-40FC-9DCC-5B132AE3479D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4">
-        <v>43556</v>
+        <v>43584</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -1242,4 +1346,202 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFC6B14-1143-4E07-8784-864130F98AD1}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43591</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CEB4B9-3E4F-42B3-80A3-5E7EB2EB4092}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43598</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SYP/Daily-Scrum.xlsx
+++ b/SYP/Daily-Scrum.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD72045-D3E6-4BB0-809B-D9B0AD943AF2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E2ECE-2053-48C8-B292-138111BAAD44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26.02.2019" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="06.05.2019" sheetId="9" r:id="rId8"/>
     <sheet name="13.05.2019" sheetId="10" r:id="rId9"/>
     <sheet name="14.05.2019" sheetId="12" r:id="rId10"/>
-    <sheet name="Tabelle5" sheetId="13" r:id="rId11"/>
+    <sheet name="20.05.2019" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
   <si>
     <t>Frage</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>4) Webservice Schnittstelle</t>
+  </si>
+  <si>
+    <t>1) GUI Veranstaltung anlegen + bearbeiten + löschen</t>
+  </si>
+  <si>
+    <t>3) User Profil und Testdaten</t>
   </si>
 </sst>
 </file>
@@ -583,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073BE6E0-1630-478B-9C2E-FA886CBE1952}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,12 +666,82 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6072A7-6B27-4444-A157-4AAB4272670F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J15:J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43605</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SYP/Daily-Scrum.xlsx
+++ b/SYP/Daily-Scrum.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92E2ECE-2053-48C8-B292-138111BAAD44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C82B29-4D3E-43F1-95E8-9B02E4F71BCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26.02.2019" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="13.05.2019" sheetId="10" r:id="rId9"/>
     <sheet name="14.05.2019" sheetId="12" r:id="rId10"/>
     <sheet name="20.05.2019" sheetId="13" r:id="rId11"/>
+    <sheet name="03.06.2019" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
   <si>
     <t>Frage</t>
   </si>
@@ -199,7 +200,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,10 +481,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -590,10 +591,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -668,11 +672,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6072A7-6B27-4444-A157-4AAB4272670F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J15:J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -743,6 +747,90 @@
     <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC38732D-0B88-4A31-9F97-D4BC2FC1E5A4}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43619</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -754,7 +842,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
@@ -861,10 +949,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" customWidth="1"/>
@@ -975,7 +1063,7 @@
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -1082,10 +1170,10 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1201,10 +1289,10 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1320,10 +1408,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
@@ -1429,10 +1517,10 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1541,10 +1629,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
